--- a/output/Total_time_range_data/河北省/唐山市_学习考察.xlsx
+++ b/output/Total_time_range_data/河北省/唐山市_学习考察.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,510 +436,560 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>code</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
           <t>province</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>city</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>topic</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>content</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A2" t="n">
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>韩自安李文双一行到沧州渤海新区中捷产业园区进行学习考察</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2019-07-18</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zwsdzdxqlutai/20190718/1018214.html</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>['7月12日，芦台经济开发区党工委委员、管委会副主任韩自安、李文双就我区高等(职业)院校办学、人才工作、农垦改革和农垦文化传承等工作到沧州渤海新区中捷产业园区进行学习考察。中捷产业园区党委副书记、纪委书记王玉芬全程接待考察，中捷产业园区党委委员、管委会副主任于连治及相关部门主要负责人出席座谈会。', '韩自安一行先后考察了中捷通航机场、标准化厂房、房车项目、尼特拉葡萄酒庄、规划馆和博物馆，详细了解了中捷产业园区项目招商、园区管理、产品特点、科技含量、产品销路和城市建设等方面工作情况，并与相关企业和项目负责人进行详细交流。', '座谈会上，中捷产业园区党委委员、管委会副主任于连治详细介绍了中捷产业园区经济社会发展情况、与捷克及中东欧国家合作情况和相关工作开展情况。他表示，中捷和芦台是农垦战线的老战友，又同时是沿海经济带开发建设中的好兄弟，希望在今后能够进一步加强学习交流，共同进步。随后，中捷相关部门主要负责人与我区考察团就具体工作事项进行了深入探讨。', '韩自安对中捷产业园区的发展成就和对外经济人文交流给予了高度评价并就我区发展情况进行了介绍。他指出，中捷抓住机遇不断成长，经过近60多年的突破与发展，到目前已基本确立了“石化工业区、海滨经济区、高新区、现代农业区城市发展”五大板块齐推并进的格局，取得了巨大的进步。芦台和中捷在经济社会发展与改革等多方面工作中有很多相似之处，通过参观学习与座谈，对中捷的发展有了一个新的认识，让人很受启发，中捷的发展模式很值得借鉴和学习，希望双方能进一步交流发展经验，加强合作、实现共赢。', '通过学习考察，我区考察团认为中捷在经济社会发展、项目建设、教育办学、农垦改革、人才引进与培养、农垦文化传承等方面取得了较好的成绩，提供了可复制推广的经验。同时，也看到了差距、发现了问题、解放了思想、增强了信心，并纷纷表示，将充分吸收借鉴中捷的先进工作理念和特色做法，以更加饱满的热情，以钉钉子精神和久久为功的韧劲，持续推动开发区各项工作开展，为实现芦台高质量发展作出新贡献。', '开发区组宣部、教育局、商务局、农业农村局、农业总公司主要负责人和分管负责同志一同参加学习考察。']</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A3" t="n">
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>市招商局赴台州学习考察</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2015-05-07</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/tszwgkzdxm/20150507/913628.html</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['按照市委学台州、解放思想大讨论活动的要求，4月29日至30日，市招商局赴台州市商务局、经济合作办公室（投资促进局）进行考察座谈，并赴浙江省海正药业集团实地考察企业生产情况，深入学习台州市在对外招商引资、对内吸引浙商回归，鼓励本土企业创业创新等方面的经验做法。台州市经合办主任、投促局局长褚义军，经合办副主任、投促局副局长阮谷禹、陈鸥，商务局副局长陈林娟等有关部门领导参加座谈。双方就两地内外资项目、主要产业布局、未来招商重点以及相应的考核制度办法进行了深入交流。经过深入了解，我们发现台州市的民营企业数量巨大，在制造业、医药化工等产业方面处于产业链下游，与我市相关产业具有很强的互补性。市招商局将以本次赴台州学习为契机，深化与台州投促部门的联系，吸引台州外溢企业来唐发展。']</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A4" t="n">
+        <v>4</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>西藏自治区日土县考察团来开平区学习考察</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-07-14</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_kaiping/20230714/1544799.html</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>['7月13日上午，西藏自治区日土县考察团来开平区学习考察。区政府副区长赵朔以及市、区教育局负责人陪同考察。', '考察团一行来到了唐山花海公共安全实训基地，实地参观了各功能展厅并亲身体验了地震小屋、VR虚拟逃生训练区等项目。', '在开平小学，考察团参观了学校的校园环境、校园文化，观看了《魅力古镇，百载开小》专题片及开平小学部分社团的精彩表演。', '考察团成员纷纷表示，此次考察学习开阔了视野，拓展了思路，将充分借鉴开平区的先进经验做法，结合自身实际，切实把学习成果转化为推动西藏自治区日土县教育高质量发展的务实举措。他们希望以此次考察学习为契机，进一步加强两地沟通交流，共同助推教育事业高质量发展。']</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>武卫东率我市党政代表团赴新疆且末县学习考察</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>2023-09-11</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/bsxw/20230911/1559153.html</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['9月9日，市委书记武卫东率我市党政代表团赴新疆且末县学习考察。他强调，要深入学习贯彻习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，完整准确全面贯彻新时代党的治疆方略，全面落实党中央和省委决策部署，推动对口援疆工作高质量发展，为在中国式现代化进程中更好建设美丽新疆贡献唐山力量。', '新疆维吾尔自治区人大常委会副主任木合亚提·加尔木哈买提，巴音郭楞蒙古自治州人大常委会党组书记、副主任王久忠，兵团第二师党委副书记、师长王磊，巴音郭楞蒙古自治州副州长、河北省援疆工作前方指挥部副指挥长王广林，兵团第二师副师长、铁门关市副市长郭飞，市领导陈宇，兵团第二师37团、38团相关负责同志和且末县党政班子成员等参加。', '武卫东一行深入且末县招商服务中心、防风治沙站和华大基因“沙变土”试点项目、县人民医院、托盖布拉克景区项目、阿羌镇土地开发项目、第二师37团中学、且末小宛有机农产品有限责任公司等考察调研，并到且末县援疆公寓，看望慰问我市援疆干部人才，勉励大家扛起重大政治责任，提升能力水平，强化责任担当，锤炼过硬作风，展现良好形象，扎实抓好各项援疆工作落实，努力在援疆主战场中贡献智慧力量。武卫东还深入村民家中，详细了解家庭收入、教育医疗、就业社保、住房饮水等方面情况，并征求意见建议。', '9月9日下午，代表团在且末县召开援疆工作座谈会。武卫东代表唐山市委、市政府，向且末县和兵团第二师长期以来对唐山工作的关注支持以及对唐山援疆干部人才的关心爱护表示衷心感谢。他说，习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话，为我们做好援疆工作指明了前进方向、提供了根本遵循。对口援疆，是党中央着眼党和国家战略全局作出的重大决策。唐山市一定深入学习贯彻习近平总书记关于新疆工作的系列重要指示精神，忠诚捍卫“两个确立”、坚决做到“两个维护”，全面落实党中央和省委决策部署，坚持依法治疆、团结稳疆、文化润疆、富民兴疆、长期建疆，铸牢中华民族共同体意识，持续深化产业、生态、文旅、民生、对外开放等领域合作，落实“人头对人头”和“五包一”对口支援工作机制，以更加奋发有为的精神状态推动援疆各项工作末端落实，奋力推动新时代对口援疆工作取得更大成效。', '木合亚提·加尔木哈买提对唐山市党政代表团到且末学习考察表示热烈欢迎。他说，长期以来，唐山始终把对口援疆作为重要政治责任，给予受援地大力支持帮助，为新疆改革发展稳定作出了重要贡献。希望双方进一步深化战略对接、加强交流合作，在新征程上书写共赢发展新篇章。且末县和兵团第二师37团、38团要发挥好主体作用，主动加强对接，做好服务保障，为推进新时代对口援疆工作创造有利条件和良好环境。', '王磊表示，唐山坚决贯彻落实习近平总书记关于新疆工作的系列重要指示精神和党中央决策部署，深入扎实开展对口援疆工作，与兵团第二师建立了深厚的兵地情谊。希望唐山市委、市政府一如既往关心和支持兵团，为兵团各项事业高质量发展提供强大动力。', '且末县委主要负责同志表示，近年来，唐山用心用情用力推进对口援疆工作，铸就了“唐且一家亲”援疆品牌。希望双方进一步加强产业协作，强化市场对接，密切人员交流往来，携手谱写互利共赢发展新篇章。且末一定全力做好对接服务保障工作，推动唐且合作不断迈上新台阶。', '座谈会上，且末县、兵团第二师37团、38团介绍经济社会发展情况和受援工作情况，市援疆工作前方指挥部汇报援疆工作开展情况，援疆干部人才进行了交流发言。会议还举行了捐赠仪式。']</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A6" t="n">
+        <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>武卫东率我市党政代表团赴新疆且末县学习考察</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzd_fagaiwei/20230913/1560161.html</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>['完整准确全面贯彻新时代党的治疆方略 为在中国式现代化进程中更好建设美丽新疆贡献唐山力量', '9月9日，市委书记武卫东率我市党政代表团赴新疆且末县学习考察。他强调，要深入学习贯彻习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，完整准确全面贯彻新时代党的治疆方略，全面落实党中央和省委决策部署，推动对口援疆工作高质量发展，为在中国式现代化进程中更好建设美丽新疆贡献唐山力量。', '新疆维吾尔自治区人大常委会副主任木合亚提·加尔木哈买提，巴音郭楞蒙古自治州人大常委会党组书记、副主任王久忠，兵团第二师党委副书记、师长王磊，巴音郭楞蒙古自治州副州长、河北省援疆工作前方指挥部副指挥长王广林，兵团第二师副师长、铁门关市副市长郭飞，市领导陈宇，兵团第二师37团、38团相关负责同志和且末县党政班子成员等参加。', '武卫东一行深入且末县招商服务中心、防风治沙站和华大基因“沙变土”试点项目、县人民医院、托盖布拉克景区项目、阿羌镇土地开发项目、第二师37团中学、且末小宛有机农产品有限责任公司等考察调研，并到且末县援疆公寓，看望慰问我市援疆干部人才，勉励大家扛起重大政治责任，提升能力水平，强化责任担当，锤炼过硬作风，展现良好形象，扎实抓好各项援疆工作落实，努力在援疆主战场中贡献智慧力量。武卫东还深入村民家中，详细了解家庭收入、教育医疗、就业社保、住房饮水等方面情况，并征求意见建议。', '9月9日下午，代表团在且末县召开援疆工作座谈会。武卫东代表唐山市委、市政府，向且末县和兵团第二师长期以来对唐山工作的关注支持以及对唐山援疆干部人才的关心爱护表示衷心感谢。他说，习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话，为我们做好援疆工作指明了前进方向、提供了根本遵循。对口援疆，是党中央着眼党和国家战略全局作出的重大决策。唐山市一定深入学习贯彻习近平总书记关于新疆工作的系列重要指示精神，忠诚捍卫“两个确立”、坚决做到“两个维护”，全面落实党中央和省委决策部署，坚持依法治疆、团结稳疆、文化润疆、富民兴疆、长期建疆，铸牢中华民族共同体意识，持续深化产业、生态、文旅、民生、对外开放等领域合作，落实“人头对人头”和“五包一”对口支援工作机制，以更加奋发有为的精神状态推动援疆各项工作末端落实，奋力推动新时代对口援疆工作取得更大成效。', '木合亚提·加尔木哈买提对唐山市党政代表团到且末学习考察表示热烈欢迎。他说，长期以来，唐山始终把对口援疆作为重要政治责任，给予受援地大力支持帮助，为新疆改革发展稳定作出了重要贡献。希望双方进一步深化战略对接、加强交流合作，在新征程上书写共赢发展新篇章。且末县和兵团第二师37团、38团要发挥好主体作用，主动加强对接，做好服务保障，为推进新时代对口援疆工作创造有利条件和良好环境。', '王磊表示，唐山坚决贯彻落实习近平总书记关于新疆工作的系列重要指示精神和党中央决策部署，深入扎实开展对口援疆工作，与兵团第二师建立了深厚的兵地情谊。希望唐山市委、市政府一如既往关心和支持兵团，为兵团各项事业高质量发展提供强大动力。', '且末县委主要负责同志表示，近年来，唐山用心用情用力推进对口援疆工作，铸就了“唐且一家亲”援疆品牌。希望双方进一步加强产业协作，强化市场对接，密切人员交流往来，携手谱写互利共赢发展新篇章。且末一定全力做好对接服务保障工作，推动唐且合作不断迈上新台阶。', '座谈会上，且末县、兵团第二师37团、38团介绍经济社会发展情况和受援工作情况，市援疆工作前方指挥部汇报援疆工作开展情况，援疆干部人才进行了交流发言。会议还举行了捐赠仪式。']</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A7" t="n">
+        <v>4</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>倪岳峰率河北省党政代表团到新疆学习考察</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>2023-09-13</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzd_fagaiwei/20230913/1560160.html</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>['9月10日至12日，省委书记、省人大常委会主任倪岳峰率河北省党政代表团到新疆学习考察。这是河北省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会现场。 河北日报记者赵海江摄', '河北新闻网讯（河北日报记者四建磊）9月10日至12日，省委书记、省人大常委会主任倪岳峰率河北省党政代表团到新疆学习考察，深入贯彻习近平总书记在听取新疆维吾尔自治区党委和政府、新疆生产建设兵团工作汇报时的重要讲话精神，完整准确全面贯彻新时代党的治疆方略，扎实推动对口援疆和冀新合作迈上新台阶。新疆维吾尔自治区党委书记、新疆生产建设兵团党委第一书记、第一政委马兴瑞，自治区党委副书记、自治区主席艾尔肯·吐尼亚孜，自治区人大常委会主任祖木热提·吾布力，自治区党委副书记、兵团政委李邑飞等参加有关活动。', '在新疆期间，河北省党政代表团先后到尉犁县达西村爱国主义教育基地、尉犁县古勒巴格村、尉犁县食用菌示范园、库尔勒市第二十三中学、新疆邢美矿业有限公司、库尔勒上库高新技术产业开发区石油石化园、铁门关职业技术学院、铁门关市人民医院、库尔勒市孔雀河生态公园等，详细了解新疆经济社会发展和我省对口援疆情况，深入谋划下一阶段冀新合作重点工作。', '9月11日上午，河北省·新疆维吾尔自治区及新疆生产建设兵团对口支援工作座谈会在库尔勒召开。马兴瑞说，习近平总书记时隔一年再次亲临新疆并发表重要讲话，为我们完整准确全面贯彻新时代党的治疆方略、更好建设美丽新疆提供了科学指南，也为深化对口援疆工作注入了新的强大动力。河北始终把对口援疆摆在重要位置，坚持“输血”“造血”并行、财力智力并重、硬件软件并进，为新疆改革发展稳定作出了重要贡献，我代表自治区党委、政府、兵团和全区各族干部群众表示衷心感谢。当前，冀新两地正聚焦总书记赋予的战略定位，牢记嘱托、感恩奋进，燕赵大地经济强省、美丽河北建设不断迈出坚实步伐，天山南北高质量发展势头强劲、美丽新疆建设扎实推进，两地深化交流合作面临新机遇。希望双方以深化对口援疆为抓手，携手服务国家战略，深化京津冀协同发展、雄安新区高标准高质量建设和丝绸之路经济带核心区建设交流对接。携手推进产业发展，推动能源资源、产业技术等优势深度结合，在拓平台、育产业、建园区、落项目上取得新成效。携手巩固民族团结，深入开展文化润疆精品工程，把中华民族共同体意识根植各族群众心灵深处。新疆将扛牢主体责任，积极完善合作机制，推进重点项目落地，推动冀新合作发展开创新局面。', '倪岳峰说，新疆工作在党和国家工作全局中具有特殊重要的地位，事关强国建设、民族复兴大局。在以习近平同志为核心的党中央坚强领导下，自治区党委、政府、兵团和全区各族干部群众牢牢扭住新疆工作总目标，扎实推进事关长治久安的根本性、基础性、长远性工作，经济社会发展和民生改善取得显著成效，创造的经验做法值得河北认真学习借鉴。河北各地各部门要深入学习贯彻习近平总书记重要指示精神和党中央决策部署，把对口援疆作为坚定拥护“两个确立”、坚决做到“两个维护”的实际行动，持续强化政治自觉、思想自觉、行动自觉，紧密对接巴州、兵团第二师实际需求，深入实施民生援疆、产业援疆、人才援疆和文化润疆，扎实推动对口援疆工作迈上新台阶。要抓住用好京津冀协同发展、雄安新区建设发展、“一带一路”核心区建设等重大机遇，进一步完善两地合作机制，不断深化经贸合作、文旅合作、生态合作，携手推动高质量发展，共同为全面建设社会主义现代化国家作出积极贡献。', '座谈会上，两省区和兵团领导分别介绍了经济社会发展和对口支援工作情况。会后举行了签约和援助资金交接仪式。', '9月12日，倪岳峰与我省援疆干部人才代表进行座谈交流，认真听取大家发言，希望大家持之以恒强化政治担当，锲而不舍抓好自身建设，把对口援疆各项工作做深做细做实。各级各有关部门要及时了解援疆干部人才的实际需求，做好服务保障工作，切实解决大家的后顾之忧，不断提升对口援疆工作质量和水平。', '自治区和兵团领导陈伟俊、哈丹·卡宾、木合亚提·加尔木哈买提、杨勇、张文胜，省领导张超超、柯俊、武卫东、严鹏程、张成中、吴晓华、康彦民参加有关活动。']</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A8" t="n">
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>丰南区领导赵立华带队赴曹妃甸区学习考察项目建设工作</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>2021-08-16</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_fengnan/20210816/1221761.html</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>['8月13日下午，区领导赵立华、田文学、李志龙、赵晓梅、孙永才、孔凡玉、董金海带领丰南经济开发区以及各乡镇（街道）主要负责同志、区直有关部门负责同志赴曹妃甸区学习考察项目建设工作。曹妃甸区委书记侯旭，区委副书记、区长郑友东等领导陪同考察。', '考察团一行在曹妃甸区实地观摩了南堡化工新材料产业园项目、文丰新材料项目、新天LNG接收站及外输管线项目、巴威高端装备制造项目。', '在考察期间，考察团一行详细听取了各项目相关情况的介绍。同时，就结合自身实际做好项目建设工作，与曹妃甸区有关人员进行了深入的交流和讨论。区委书记赵立华表示，通过考察与交流，我们收获了项目建设工作中的好经验、好做法。各地各单位要结合我区实际，把抓项目建设作为助力我区高质量发展的重要抓手，进一步优化营商环境，推动我区在项目建设工作中更上一个新台阶。']</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A9" t="n">
+        <v>4</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>正定县委副书记卢润彩一行来我市学习考察慈善工作开展情况并进行座谈交流</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>2021-07-20</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_luanzhou/20210720/1203236.html</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['近日，正定县委副书记卢润彩一行来我市学习考察慈善工作开展情况并进行座谈交流。市委副书记王合成，市委常委人选、副市长刘翠萍出席座谈会。民政局和市慈善协会相关负责人参加了座谈交流。', '会上，王合成致欢迎辞，表示，正定县慈善工作学习考察团的到来，为我市提供了一个相互学习、相互借鉴、相互提高的机会和平台。希望双方加强交流、携手共进，不断开创推进慈善事业高质量发展的新局面。', '民政局和慈善协会负责人分别介绍了我市推动慈善事业发展有关经验及取得的成效。与会人员就慈善事业的组织保障、项目运作、资金管理等方面内容进行了座谈交流。卢润彩对我市慈善工作取得的成绩给予高度赞誉，认为我市对慈善事业重视程度高，资金募集广泛，救助项目精准，慈善工作走在了全省前列。正定县将积极学习借鉴我市的成功经验，多沟通交流，多渠道合作，更好的推动正定县慈善事业快速发展。']</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A10" t="n">
+        <v>4</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>河北省党政代表团到北京市学习考察</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>2023-02-21</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/hbsnyw/20230221/1501286.html</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['2月20日，我省党政代表团到北京市学习考察。这是我省党政代表团在中关村国家自主创新示范区展示中心，观看创新成果展。', '2月20日，我省党政代表团到北京市学习考察，深入贯彻党的二十大精神，全面落实习近平总书记关于京津冀协同发展重要指示，学习借鉴北京经验，深化京冀务实合作，共同推进重大国家战略实施取得新成效。', '北京市委书记尹力，市委副书记、市长殷勇，市人大常委会主任李秀领，与省委书记、省人大常委会主任倪岳峰，省委副书记、省长王正谱等参加活动。', '2月20日，我省党政代表团到北京市学习考察。这是我省党政代表团在小米集团产品展厅，实地察看最新产品和科技成果。', '在北京市学习考察期间，我省党政代表团来到北京证券交易所，认真听取北交所建设运行和支持河北企业上市情况介绍。在中关村国家自主创新示范区展示中心，代表团观看创新成果展，了解示范区创新发展历程、创新创业生态、前沿技术成果和新技术新产品应用等。在小米集团，代表团走进产品展厅和技术实验室，实地察看最新产品和科技成果。在北京城市副中心，代表团详细听取规划建设情况介绍，与北京市有关负责同志深入交流。', '2月20日，我省党政代表团到北京市学习考察。这是我省党政代表团在北京城市副中心，详细听取规划建设情况介绍。', '在两省市工作交流座谈会上，尹力、倪岳峰讲话。殷勇、王正谱分别介绍两省市经济社会发展和推进协同发展有关情况。', '尹力感谢河北省长期以来对北京市的大力支持。他说，今年是全面贯彻落实党的二十大精神的开局之年，京津冀协同发展已进入全面深化实施的新阶段。北京与河北地域一体、文化一脉、人缘相亲，新征程上要共同深入贯彻习近平总书记关于京津冀协同发展的重要讲话和指示批示精神，把握协同发展历史主动，增强责任感使命感紧迫感，坚持优势互补、互利共赢，深化区域合作，使协同发展的成果更多更好地惠及京冀两地人民群众，携手推动中国式现代化在区域协同发展中形成更多生动实践。支持雄安新区建设，统筹全市优质资源，加强常态化对接，支持部分在京高校、医疗机构、科研机构、企事业单位等向雄安新区转移，以首善标准落实好战略合作协议，继续深化教育、医疗、职业培训等领域合作，支持北京市属国企参与雄安新区规划建设、城市管理、生态治理，引导更多北京科技创新资源在雄安新区布局发展。高水平规划建设好北京通州区与河北廊坊北三县一体化高质量发展示范区和北京大兴国际机场临空经济区，打造省际交界地区一体化发展典范。加快建设定位清晰、协调联动的现代化首都都市圈，带动交通、生态、产业、公共服务等重点领域协同发展取得新突破。', '倪岳峰感谢北京市多年来给予河北的支持帮助。他说，在以习近平同志为核心的党中央坚强领导下，北京市坚决履行政治责任，大力支持河北规划建设雄安新区、打赢脱贫攻坚战、加快产业转型升级，河北人民始终铭记在心。河北省坚决服从服务大局，积极承接北京产业、企业、人口转移，全力打造首都“两区”，圆满完成北京冬奥会筹办举办任务，努力在对接京津、服务京津中加快发展自己。京津冀协同发展充分彰显了“两个确立”的决定性意义，激励全省上下矢志不渝沿着习近平总书记指引的方向奋勇前进。河北将紧紧扭住疏解北京非首都功能这个“牛鼻子”，加快建设一体化交通网络，强化生态环境联建联防联治，深化产业对接和创新协作，推动京冀重点领域合作取得新突破。要聚焦建设以首都为核心的世界级城市群，积极服务北京城市副中心建设，高标准高质量建设雄安新区，大力推动张北地区发展，合力打造北京新的“两翼”和河北“两翼”。要携手推进中国式现代化展现美好图景，在建设新型能源体系、发展现代商贸物流产业、壮大数字经济、推动养老事业和养老产业协同发展等方面加强合作，为全面建设社会主义现代化国家开好局起好步贡献力量。', '北京市领导夏林茂、赵磊、于英杰、刘宇辉、崔述强，市政府党组成员穆鹏；省领导张超超、张国华、葛海蛟、武卫东、董仚生、吴晓华、胡启生、董兆伟、冉万祥、康彦民，省政府秘书长朱浩文参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A11" t="n">
+        <v>4</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>古冶区考察团来我市学习考察</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>2021-04-08</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_qianan/20210408/1159167.html</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['4月7日上午，古冶区副区长刘春福带领相关单位及钢铁企业主要负责同志，来我市就生态环保、企业争A创B等工作进行考察学习。考察团一行实地考察参观了首钢迁钢公司生产环保指挥中心、球团脱硫脱硝主控室等，并召开了座谈会议，双方就当前生态环保重点工作、钢铁企业环境管理、污染治理及绿色发展等工作进行深入探讨交流，对我市相关工作给予充分肯定。']</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A12" t="n">
+        <v>4</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>丰南区有关部门及部分钢铁企业负责人赴首钢迁钢学习考察</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>2021-04-06</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_fengnan/20210406/1157541.html</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['近日，丰南区副区长兰绍光带领区生态环境分局、工信局、生态环保指挥中心主要负责同志，瑞丰、东华、经安、纵横4家钢铁企业主要负责人及分管负责人，赴首钢迁钢学习考察企业绿色发展、污染治理、环境管理及创A工作先进经验。', '兰绍光一行先后参观了炼铁作业部三高炉主控室、炼铁作业部球团二系列脱硫脱硝主控室、生产环保指挥中心总调度室等区域，并听取了负责同志的详细介绍。', '随后，在首钢迁钢生产环保指挥中心召开座谈会。会上，首钢迁钢负责同志介绍了环境保护工作情况。兰绍光在会上表示，', '绿色发展、污染治理和环境管理等方面的好经验、好做法。丰南区各地各单位要结合实际，很好地学习借鉴，']</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A13" t="n">
+        <v>4</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>丰南区考察团来我市学习考察</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_qianan/20210402/1157111.html</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['4月1日上午，丰南区副区长兰绍光、唐山市钢铁工业协会秘书长晏希会带领相关单位及钢铁企业主要负责同志，来我市就生态环保、企业创A等工作进行考察学习。考察团一行赴首钢迁钢公司高炉主控室、球团脱硫脱硝主控室、生产环保指挥中心等地进行实地参观考察，双方组织座谈，就当前生态环保重点工作、企业环保精细化管理及绿色发展等工作进行深入探讨交流，对我市相关工作给予充分肯定。']</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A14" t="n">
+        <v>4</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>高新区党工委书记管委会主任庞秋原带队赴雄安新区学习考察</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>2021-04-02</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_gaoxinqu/20210402/1157623.html</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>['4月2日上午，高新区党工委书记、管委会主任庞秋原带队赴雄安新区学习考察。雄安集团党委常委、副总经理安晓良，雄安高铁枢纽片区临时党工委书记、管委会主任，雄县政府党组副书记张玉明等陪同考察。', '庞秋原先后到雄安站枢纽片区和雄安新区规划展示中心认真听取相关情况介绍，详细了解雄安站和雄安新区整体规划建设情况，并与安晓良就城市规划建设等相关问题现场进行深入交流。考察中，庞秋原说，雄安新区的规划建设，充分体现了雄安质量、雄安速度，是高质量发展的标杆。我们要学习雄安新区的理念和规划，对标先进、拓宽视野，进一步完善提升城市规划，优化城市功能布局和产业布局，以科学规划引领高新区创新发展、高质量发展。', '安晓良表示，省委、省政府举全省之力高标准高质量推动雄安新区建设，各地市县区给予雄安新区大力支持，目前各项工作进展顺利。下一步，雄安新区将在产业升级、生态建设、城市规划建设等领域与包括唐山高新区在内的各市县区进一步加强对接合作。']</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A15" t="n">
+        <v>4</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>孙素慧带领相关部门赴天津滨海新区学习考察</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>2021-01-04</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_caofeidian/20210104/1128249.html</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>['12月30日，区政府副区长孙素慧带领相关部门赴天津滨海新区学习考察。考察团一行先后赴天津医科大学中新生态城医院、南开中学滨海生态城学校、滨海新区文化中心、泰达枫叶国际学校等地进行实地考察，详细了解了滨海新区在教育体育、卫生健康、文化旅游等方面的成功做法，吸收借鉴了宝贵经验。座谈会上，双方就共同关注的领域和问题进行了深入交流。孙素慧表示，希望以这次学习考察为契机，进一步深化双方合作领域，推进两地合作不断迈上新台阶、取得新成效。区政府办、新城管委会、教育体育局、卫健局、文旅局相关负责同志参加活动。']</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>河北省</t>
-        </is>
+      <c r="A16" t="n">
+        <v>4</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>唐山市</t>
+          <t>河北省</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>唐山市</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>开平区领导带队赴滦南学习考察创卫先进经验</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>2021-03-05</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>http://www.tangshan.gov.cn//zhuzhan/zw_sdzdxq_kaiping/20210305/1146458.html</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>['为进一步推进创建卫生城市工作，3月4日，开平区政府副区长杨艳辉率队到唐山市滦南县学习考察该县创**家级卫生县城方面的先进经验。', '座谈会上，滦南县卫健局副局长吴贺江同与会人员分享了创**家卫生县城工作的成功经验，从对照标准找差距、细化任务定计划、专家把脉明方向、行业培训见实效、精准精细真落实、重点难点建机制几方面进行了详细介绍，并与我区与会同志进行了深入交流讨论。', '座谈中，区政府副区长杨艳辉强调，国家卫生城市是评价和反映一个城市整体发展水平和文明程度的综合性标志，是优化城市管理服务、改善城乡环境面貌、提高居民卫生健康水平的重要抓手，大家要以此次考察为契机，认真学习滦南县成功创**家卫生县城的好经验、好做法，坚持问题导向，结合我区实际，针对发现的问题，要规范化、长效化解决问题，补齐短板，高质量完成创卫任务。', '会后，考察组一行先后到滦南县文体中心、爱民路社区市场、北河公园等重点场所及重点区域的垃圾压缩中转站、二类公共厕所进行了参观考察，实地了解各点位的优秀做法和经验。大家纷纷表示不虚此行，受益匪浅。']</t>
         </is>
